--- a/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -246,10 +246,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,7 +307,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,8 +334,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,7 +413,7 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -457,7 +461,7 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -489,7 +493,7 @@
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -521,7 +525,7 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -553,7 +557,7 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -585,7 +589,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -617,7 +621,7 @@
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -649,7 +653,7 @@
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -681,7 +685,7 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -713,7 +717,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -745,7 +749,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -777,7 +781,7 @@
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -809,7 +813,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -841,7 +845,7 @@
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -873,7 +877,7 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -905,7 +909,7 @@
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -937,7 +941,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -969,7 +973,7 @@
       <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1001,7 +1005,7 @@
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1033,7 +1037,7 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1065,7 +1069,7 @@
       <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1097,7 +1101,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1129,7 +1133,7 @@
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1161,7 +1165,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1193,7 +1197,7 @@
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1225,7 +1229,7 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1257,7 +1261,7 @@
       <c r="G28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="0" t="s">
@@ -1289,7 +1293,7 @@
       <c r="G29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="0" t="s">
@@ -1321,7 +1325,7 @@
       <c r="G30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="0" t="s">
@@ -1353,7 +1357,7 @@
       <c r="G31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="0" t="s">
@@ -1385,7 +1389,7 @@
       <c r="G32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="0" t="s">
@@ -1417,7 +1421,7 @@
       <c r="G33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="0" t="s">
@@ -1449,7 +1453,7 @@
       <c r="G34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="0" t="s">
@@ -1481,7 +1485,7 @@
       <c r="G35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="0" t="s">
@@ -1513,7 +1517,7 @@
       <c r="G36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="0" t="s">
@@ -1545,7 +1549,7 @@
       <c r="G37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="0" t="s">
@@ -1577,7 +1581,7 @@
       <c r="G38" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="0" t="s">
@@ -1609,7 +1613,7 @@
       <c r="G39" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="0" t="s">
@@ -1641,7 +1645,7 @@
       <c r="G40" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="0" t="s">
@@ -1673,7 +1677,7 @@
       <c r="G41" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="59">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -206,8 +203,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -294,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,6 +310,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,8 +336,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -416,11 +418,11 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -447,7 +449,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -464,11 +466,11 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -496,11 +498,11 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -528,11 +530,11 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -560,11 +562,11 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -592,11 +594,11 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -624,11 +626,11 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -656,11 +658,11 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -688,11 +690,11 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -720,11 +722,11 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -752,11 +754,11 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -784,11 +786,11 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -816,11 +818,11 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -848,11 +850,11 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -880,11 +882,11 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -912,11 +914,11 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -944,11 +946,11 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -976,11 +978,11 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -1008,11 +1010,11 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -1040,11 +1042,11 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1072,11 +1074,11 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -1104,11 +1106,11 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
@@ -1136,11 +1138,11 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -1168,11 +1170,11 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -1200,11 +1202,11 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -1232,11 +1234,11 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>13</v>
@@ -1264,11 +1266,11 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>16</v>
+      <c r="I28" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>13</v>
@@ -1296,11 +1298,11 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>16</v>
+      <c r="I29" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>13</v>
@@ -1328,11 +1330,11 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>16</v>
+      <c r="I30" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>13</v>
@@ -1360,11 +1362,11 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>16</v>
+      <c r="I31" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>13</v>
@@ -1392,11 +1394,11 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>16</v>
+      <c r="I32" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>13</v>
@@ -1424,11 +1426,11 @@
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>16</v>
+      <c r="I33" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>13</v>
@@ -1456,11 +1458,11 @@
       <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>16</v>
+      <c r="I34" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>13</v>
@@ -1488,11 +1490,11 @@
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>16</v>
+      <c r="I35" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>13</v>
@@ -1520,11 +1522,11 @@
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>16</v>
+      <c r="I36" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>13</v>
@@ -1552,22 +1554,22 @@
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>16</v>
+      <c r="I37" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>13</v>
@@ -1584,22 +1586,22 @@
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>16</v>
+      <c r="I38" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>13</v>
@@ -1616,22 +1618,22 @@
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>16</v>
+      <c r="I39" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>13</v>
@@ -1648,22 +1650,22 @@
       <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>16</v>
+      <c r="I40" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>13</v>
@@ -1680,11 +1682,11 @@
       <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>16</v>
+      <c r="I41" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">11.10.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -336,13 +336,15 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1260,7 +1262,7 @@
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -1292,7 +1294,7 @@
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -1324,7 +1326,7 @@
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -1356,7 +1358,7 @@
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -1388,7 +1390,7 @@
       <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -1420,7 +1422,7 @@
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -1452,7 +1454,7 @@
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -1484,7 +1486,7 @@
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -1516,7 +1518,7 @@
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -1548,7 +1550,7 @@
       <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -1580,7 +1582,7 @@
       <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -1612,7 +1614,7 @@
       <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -1644,7 +1646,7 @@
       <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -1676,7 +1678,7 @@
       <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="4" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">11.10.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -337,7 +337,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,7 +420,8 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -468,7 +469,8 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -500,7 +502,8 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -532,7 +535,8 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -564,7 +568,8 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -596,7 +601,8 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -628,7 +634,8 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -660,7 +667,8 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -692,7 +700,8 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -724,7 +733,8 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -756,7 +766,8 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -788,7 +799,8 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -820,7 +832,8 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -852,7 +865,8 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -884,7 +898,8 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -916,7 +931,8 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -948,7 +964,8 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -980,7 +997,8 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1012,7 +1030,8 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1044,7 +1063,8 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1076,7 +1096,8 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1108,7 +1129,8 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1140,7 +1162,8 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1172,7 +1195,8 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1204,7 +1228,8 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1236,7 +1261,8 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1268,7 +1294,8 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="5" t="b">
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
@@ -1300,7 +1327,8 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="5" t="b">
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="0" t="s">
@@ -1332,7 +1360,8 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="5" t="b">
+      <c r="I30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
@@ -1364,7 +1393,8 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="5" t="b">
+      <c r="I31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
@@ -1396,7 +1426,8 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="5" t="b">
+      <c r="I32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
@@ -1428,7 +1459,8 @@
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="5" t="b">
+      <c r="I33" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
@@ -1460,7 +1492,8 @@
       <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="5" t="b">
+      <c r="I34" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
@@ -1492,7 +1525,8 @@
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="5" t="b">
+      <c r="I35" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="0" t="s">
@@ -1524,7 +1558,8 @@
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="5" t="b">
+      <c r="I36" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
@@ -1556,7 +1591,8 @@
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="5" t="b">
+      <c r="I37" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="0" t="s">
@@ -1588,7 +1624,8 @@
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="5" t="b">
+      <c r="I38" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="0" t="s">
@@ -1620,7 +1657,8 @@
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="5" t="b">
+      <c r="I39" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="0" t="s">
@@ -1652,7 +1690,8 @@
       <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="5" t="b">
+      <c r="I40" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="0" t="s">
@@ -1684,7 +1723,8 @@
       <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="5" t="b">
+      <c r="I41" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J41" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.10.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2EC322-15FB-7740-B549-D94306C52ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE592CBE-2908-DE4E-AE50-05458AA9C39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="20">
   <si>
     <t>rnaDate</t>
   </si>
@@ -88,15 +88,15 @@
   </si>
   <si>
     <t>10.17.19</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,9 +551,8 @@
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -600,9 +599,8 @@
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -633,9 +631,8 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -666,9 +663,8 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -699,9 +695,8 @@
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -732,9 +727,8 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -765,9 +759,8 @@
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -798,9 +791,8 @@
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -831,9 +823,8 @@
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -864,9 +855,8 @@
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
@@ -897,9 +887,8 @@
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
@@ -930,9 +919,8 @@
       <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -963,9 +951,8 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -996,9 +983,8 @@
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
@@ -1029,9 +1015,8 @@
       <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1062,9 +1047,8 @@
       <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -1095,9 +1079,8 @@
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I18" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1128,9 +1111,8 @@
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
@@ -1161,9 +1143,8 @@
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
@@ -1194,9 +1175,8 @@
       <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I21" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
@@ -1227,9 +1207,8 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I22" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
@@ -1260,9 +1239,8 @@
       <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I23" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
@@ -1293,9 +1271,8 @@
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I24" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
@@ -1326,9 +1303,8 @@
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I25" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1359,9 +1335,8 @@
       <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I26" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1392,9 +1367,8 @@
       <c r="H27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I27" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
@@ -1425,9 +1399,8 @@
       <c r="H28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I28" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J28" t="s">
         <v>15</v>
@@ -1458,9 +1431,8 @@
       <c r="H29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I29" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -1491,9 +1463,8 @@
       <c r="H30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I30" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -1524,9 +1495,8 @@
       <c r="H31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I31" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1557,9 +1527,8 @@
       <c r="H32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I32" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -1590,9 +1559,8 @@
       <c r="H33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I33" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -1623,9 +1591,8 @@
       <c r="H34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I34" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -1656,9 +1623,8 @@
       <c r="H35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I35" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -1689,9 +1655,8 @@
       <c r="H36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I36" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -1722,9 +1687,8 @@
       <c r="H37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I37" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
@@ -1755,9 +1719,8 @@
       <c r="H38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I38" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -1788,9 +1751,8 @@
       <c r="H39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I39" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
@@ -1821,9 +1783,8 @@
       <c r="H40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I40" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
@@ -1854,13 +1815,24 @@
       <c r="H41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I41" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J41" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I45" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
